--- a/学习资料/git代码.xlsx
+++ b/学习资料/git代码.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>代码名次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t> 查看所有分支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>git branch -d 分支名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -454,12 +451,73 @@
     <t>当我想从远程仓库里拉取一条本地不存在的分支时：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>git branch -a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看本地与远程分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 查看本地分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push origin --delete dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除远程分支dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push origin dev:dev1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建远程分支dev并将本地分支dev1内容push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git remote上传到远程代码库：第一次上传</t>
+  </si>
+  <si>
+    <t>1、初始化git版本库：git init</t>
+  </si>
+  <si>
+    <t>2、添加文件到本地库：git add .</t>
+  </si>
+  <si>
+    <t>3、提交文件到本地库：git commit -m "msg(提交日志)"</t>
+  </si>
+  <si>
+    <t>重要提示：2、3可合并（git commit -am ""）</t>
+  </si>
+  <si>
+    <t>4、关联远程库：git remote add origin(可修改) branch_Name(为空时默认为master) url</t>
+  </si>
+  <si>
+    <t>关联之后可以用git remote -v 来检查是否关联成功</t>
+  </si>
+  <si>
+    <t>5、一般情况需要先pull一下：git pull origin master</t>
+  </si>
+  <si>
+    <t>一般情况下含有共同文件时需要执行 git merge origin/master --allow-unrelated-histories</t>
+  </si>
+  <si>
+    <t>这之后解决一下冲突</t>
+  </si>
+  <si>
+    <t>6、push到远程库：git push -u origin master</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +570,18 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -554,13 +624,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -868,7 +944,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:41" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -884,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:41" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -892,12 +968,12 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:41" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -908,15 +984,15 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:41" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:41" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -968,10 +1044,10 @@
     </row>
     <row r="10" spans="1:41" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1015,10 +1091,10 @@
     </row>
     <row r="11" spans="1:41" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1062,10 +1138,10 @@
     </row>
     <row r="12" spans="1:41" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1112,7 +1188,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1159,7 +1235,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1211,102 +1287,126 @@
     </row>
     <row r="16" spans="1:41" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>13</v>
+      <c r="A22" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="31" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1329,67 +1429,67 @@
   <sheetData>
     <row r="1" spans="1:1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1399,4 +1499,110 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="67.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>